--- a/Lab 6/Data Collection/Data.xlsx
+++ b/Lab 6/Data Collection/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="p1d10" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,10 @@
     <sheet name="p2d90" sheetId="5" r:id="rId5"/>
     <sheet name="p3d30" sheetId="6" r:id="rId6"/>
     <sheet name="p4d120" sheetId="7" r:id="rId7"/>
+    <sheet name="Graphs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,6 +571,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1416,11 +1432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="27853952"/>
-        <c:axId val="27855488"/>
+        <c:axId val="92478848"/>
+        <c:axId val="92529792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27853952"/>
+        <c:axId val="92478848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27855488"/>
+        <c:crossAx val="92529792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,7 +1454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27855488"/>
+        <c:axId val="92529792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1465,4465 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27853952"/>
+        <c:crossAx val="92478848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 2, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p2d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p2d30!$D$1:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p2d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p2d30!$E$1:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="478844416"/>
+        <c:axId val="536839296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="478844416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="536839296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536839296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="478844416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 2, Kd = 90</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p2d90!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p2d90!$D$1:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p2d90!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p2d90!$E$1:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539772416"/>
+        <c:axId val="539773952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539772416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539773952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539773952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539772416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 3, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p3d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p3d30!$D$1:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p3d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p3d30!$E$1:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="604600576"/>
+        <c:axId val="604810624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="604600576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604810624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604810624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604600576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 4, Kd = 120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p4d120!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p4d120!$D$1:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p4d120!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p4d120!$E$1:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554971136"/>
+        <c:axId val="554972672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554971136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="554972672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554972672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="554971136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d20!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d20!$D$1:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d20!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d20!$E$1:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="650306688"/>
+        <c:axId val="650308224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="650306688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650308224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650308224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="650306688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,6 +5959,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2157,7 +6650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>153</c:v>
@@ -2220,13 +6713,13 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>136</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>168</c:v>
@@ -2375,11 +6868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39997440"/>
-        <c:axId val="39998976"/>
+        <c:axId val="108201856"/>
+        <c:axId val="108203392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39997440"/>
+        <c:axId val="108201856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +6882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39998976"/>
+        <c:crossAx val="108203392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +6890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39998976"/>
+        <c:axId val="108203392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +6901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39997440"/>
+        <c:crossAx val="108201856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,6 +6937,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3110,13 +7622,13 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>173</c:v>
@@ -3322,11 +7834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110946176"/>
-        <c:axId val="110947712"/>
+        <c:axId val="117485952"/>
+        <c:axId val="117487488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110946176"/>
+        <c:axId val="117485952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +7848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110947712"/>
+        <c:crossAx val="117487488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3344,7 +7856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110947712"/>
+        <c:axId val="117487488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +7867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110946176"/>
+        <c:crossAx val="117485952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,6 +7903,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 2, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4000,7 +8531,7 @@
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>163</c:v>
@@ -4065,11 +8596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190896384"/>
-        <c:axId val="76353536"/>
+        <c:axId val="166173312"/>
+        <c:axId val="166179200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190896384"/>
+        <c:axId val="166173312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,7 +8610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76353536"/>
+        <c:crossAx val="166179200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4087,7 +8618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76353536"/>
+        <c:axId val="166179200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +8629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190896384"/>
+        <c:crossAx val="166173312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4134,6 +8665,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 2, Kd = 90</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5060,11 +9610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76494720"/>
-        <c:axId val="76496256"/>
+        <c:axId val="199572096"/>
+        <c:axId val="199577984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76494720"/>
+        <c:axId val="199572096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +9624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76496256"/>
+        <c:crossAx val="199577984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5082,7 +9632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76496256"/>
+        <c:axId val="199577984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,7 +9643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76494720"/>
+        <c:crossAx val="199572096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5129,6 +9679,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 3, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5875,11 +10444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383400960"/>
-        <c:axId val="191451904"/>
+        <c:axId val="238515328"/>
+        <c:axId val="238516864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383400960"/>
+        <c:axId val="238515328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +10458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191451904"/>
+        <c:crossAx val="238516864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +10466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191451904"/>
+        <c:axId val="238516864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5908,7 +10477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383400960"/>
+        <c:crossAx val="238515328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5944,6 +10513,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 4, Kd = 120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6628,7 +11216,7 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>101</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>139</c:v>
@@ -6726,11 +11314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394103040"/>
-        <c:axId val="32092160"/>
+        <c:axId val="342928768"/>
+        <c:axId val="343360640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394103040"/>
+        <c:axId val="342928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6740,7 +11328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32092160"/>
+        <c:crossAx val="343360640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6748,7 +11336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32092160"/>
+        <c:axId val="343360640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,7 +11347,1903 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394103040"/>
+        <c:crossAx val="342928768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d10!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d10!$D$1:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d10!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d10!$E$1:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="400905344"/>
+        <c:axId val="427754240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="400905344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="427754240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427754240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="400905344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kp = 1, Kd = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Desired</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d30!$D$1:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>p1d30!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p1d30!$E$1:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="478856320"/>
+        <c:axId val="478857856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="478856320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="478857856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478857856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="478856320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7018,6 +13502,235 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7316,7 +14029,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E64"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8420,7 +15133,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E68"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8439,7 +15152,7 @@
         <v>150</v>
       </c>
       <c r="E1">
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +15509,7 @@
         <v>150</v>
       </c>
       <c r="E22">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8830,7 +15543,7 @@
         <v>150</v>
       </c>
       <c r="E24">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9592,7 +16305,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E67"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9628,7 +16341,7 @@
         <v>150</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9662,7 +16375,7 @@
         <v>150</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10747,7 +17460,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E50"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11327,7 +18040,7 @@
         <v>150</v>
       </c>
       <c r="E34">
-        <v>98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11613,7 +18326,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E71"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,7 +19549,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E56"/>
+      <selection activeCell="K24" sqref="K24:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13803,8 +20516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14350,7 +21063,7 @@
         <v>150</v>
       </c>
       <c r="E32">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -14816,4 +21529,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>